--- a/medicine/Psychotrope/Giobatta_&_Piero_Garbellotto/Giobatta_&_Piero_Garbellotto.xlsx
+++ b/medicine/Psychotrope/Giobatta_&_Piero_Garbellotto/Giobatta_&_Piero_Garbellotto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Giobatta_%26_Piero_Garbellotto</t>
+          <t>Giobatta_&amp;_Piero_Garbellotto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Giobatta &amp; Piero Garbellotto est une entreprise italienne spécialisée dans la fabrication de tonneaux, de cuves et de barriques, basée à Conegliano, dans la province de Trévise en Vénétie. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Giobatta_%26_Piero_Garbellotto</t>
+          <t>Giobatta_&amp;_Piero_Garbellotto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giobatta &amp; Piero Garbellotto est une entreprise familiale qui a toujours été détenue et dirigée par la famille Garbellotto. Fondée en 1775 et encore en activité en 2009, sa longévité lui permet de faire partie de l'Association des Hénokiens[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giobatta &amp; Piero Garbellotto est une entreprise familiale qui a toujours été détenue et dirigée par la famille Garbellotto. Fondée en 1775 et encore en activité en 2009, sa longévité lui permet de faire partie de l'Association des Hénokiens.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Giobatta_%26_Piero_Garbellotto</t>
+          <t>Giobatta_&amp;_Piero_Garbellotto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Métier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entreprise est spécialisée dans la fabrication de tonneaux, de cuves et de barriques.
 </t>
